--- a/SUMMARY SHEETS/environmentalvectorstats_NMDS.xlsx
+++ b/SUMMARY SHEETS/environmentalvectorstats_NMDS.xlsx
@@ -386,10 +386,10 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>-0.09189535955455932</v>
+        <v>-0.0878687541494345</v>
       </c>
       <c r="B2">
-        <v>0.3750678048520966</v>
+        <v>0.3950104375419812</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -397,18 +397,18 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1491206153442322</v>
+        <v>0.1637541637228812</v>
       </c>
       <c r="E2">
-        <v>0.6151799999999999</v>
+        <v>0.5853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>-0.3619300329693293</v>
+        <v>0.06638045697021711</v>
       </c>
       <c r="B3">
-        <v>0.1418829212454418</v>
+        <v>0.2401720212537448</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -416,18 +416,18 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.15112411210632</v>
+        <v>0.0620889648606841</v>
       </c>
       <c r="E3">
-        <v>0.608</v>
+        <v>0.8203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>0.5879973922644058</v>
+        <v>0.8906608047253133</v>
       </c>
       <c r="B4">
-        <v>-0.08293713225836859</v>
+        <v>-0.1535376952871727</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -435,18 +435,18 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.3526195012169836</v>
+        <v>0.8168504929480394</v>
       </c>
       <c r="E4">
-        <v>0.26816</v>
+        <v>0.0058</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>0.7881088332993719</v>
+        <v>0.822745061497057</v>
       </c>
       <c r="B5">
-        <v>-0.02424399569023523</v>
+        <v>0.1310115039056672</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -454,18 +454,18 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.6217033044515253</v>
+        <v>0.6940734503734208</v>
       </c>
       <c r="E5">
-        <v>0.05653</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>0.07780968756620131</v>
+        <v>0.4518339721093921</v>
       </c>
       <c r="B6">
-        <v>-0.03061885944331656</v>
+        <v>-0.4318463494667501</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -473,18 +473,18 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.006991862032759438</v>
+        <v>0.3906452078999094</v>
       </c>
       <c r="E6">
-        <v>0.97453</v>
+        <v>0.2311</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>0.7048539006167408</v>
+        <v>0.7710417934010483</v>
       </c>
       <c r="B7">
-        <v>0.1957758810713397</v>
+        <v>-0.03692104064424524</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -492,18 +492,18 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.5351472168238937</v>
+        <v>0.5958686104133588</v>
       </c>
       <c r="E7">
-        <v>0.09927</v>
+        <v>0.0704</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>0.6314167839585764</v>
+        <v>0.5330015897543935</v>
       </c>
       <c r="B8">
-        <v>0.3381661425462763</v>
+        <v>0.4267502139443723</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -511,18 +511,18 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.5130434950292199</v>
+        <v>0.4662064397822784</v>
       </c>
       <c r="E8">
-        <v>0.11362</v>
+        <v>0.1509</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>0.7486491995761814</v>
+        <v>0.4539296452210826</v>
       </c>
       <c r="B9">
-        <v>0.3220003365515821</v>
+        <v>0.4017645080830756</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -530,18 +530,18 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.6641598407653893</v>
+        <v>0.3674668427657737</v>
       </c>
       <c r="E9">
-        <v>0.03825</v>
+        <v>0.2519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>0.593098212174578</v>
+        <v>0.2234828570962789</v>
       </c>
       <c r="B10">
-        <v>0.3420104737645843</v>
+        <v>0.3906971890514233</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -549,18 +549,18 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.4687366534493562</v>
+        <v>0.2025888809485994</v>
       </c>
       <c r="E10">
-        <v>0.14276</v>
+        <v>0.5003</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>0.8078839122431558</v>
+        <v>0.7929834761250193</v>
       </c>
       <c r="B11">
-        <v>0.05695924879863171</v>
+        <v>0.1927773710839361</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -568,10 +568,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.6559207716850116</v>
+        <v>0.6659859082093526</v>
       </c>
       <c r="E11">
-        <v>0.03919</v>
+        <v>0.0354</v>
       </c>
     </row>
   </sheetData>

--- a/SUMMARY SHEETS/environmentalvectorstats_NMDS.xlsx
+++ b/SUMMARY SHEETS/environmentalvectorstats_NMDS.xlsx
@@ -1,21 +1,216 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelleysinning/Library/CloudStorage/GoogleDrive-ksinning@vt.edu/My Drive/Data/saltyC_VirginiaTech/SUMMARY SHEETS/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8EFA2A-BFBB-2445-A523-F146DA630C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="22100" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <si>
+    <t>NMDS1</t>
+  </si>
+  <si>
+    <t>NMDS2</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>P_value</t>
+  </si>
+  <si>
+    <r>
+      <t>Annual mean temperature (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF474747"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>°C)</t>
+    </r>
+  </si>
+  <si>
+    <t>Annual mean pH</t>
+  </si>
+  <si>
+    <t>Annual mean %DO</t>
+  </si>
+  <si>
+    <t>Annual mean DO (mg/L)</t>
+  </si>
+  <si>
+    <r>
+      <t>Specific conductivity (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1F1F1F"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>µS/cm)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A1718"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Annual mean CBOM (g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF1A1718"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A1718"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Annual mean FBOM AFDM (g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF1A1718"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A1718"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Annual mean Algae AFDM (g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF1A1718"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A1718"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Annual mean  autotrophic index  (g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF1A1718"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A1718"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Annual mean chlorophyll-a  (g/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color rgb="FF1A1718"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF1A1718"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -31,6 +226,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1A1718"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF474747"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color rgb="FF1A1718"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -40,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,28 +281,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +365,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +399,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +434,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,231 +610,207 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="33.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>NMDS1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>NMDS2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Variable</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>R2</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>P_value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>-0.0878687541494345</v>
-      </c>
-      <c r="B2">
-        <v>0.3950104375419812</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>annual.mean.CBOM</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>0.1637541637228812</v>
-      </c>
-      <c r="E2">
-        <v>0.5853</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>0.06638045697021711</v>
-      </c>
-      <c r="B3">
-        <v>0.2401720212537448</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>annual.mean.FBOM</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>0.0620889648606841</v>
-      </c>
-      <c r="E3">
-        <v>0.8203</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>0.8906608047253133</v>
-      </c>
-      <c r="B4">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>-8.78687541494345E-2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.39501043754198117</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.16375416372288121</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.58530000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>6.6380456970217105E-2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.24017202125374479</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
+        <v>6.2088964860684097E-2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.82030000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>0.89066080472531328</v>
+      </c>
+      <c r="B4" s="4">
         <v>-0.1535376952871727</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>annual.mean.Algae</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>0.8168504929480394</v>
-      </c>
-      <c r="E4">
-        <v>0.0058</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>0.822745061497057</v>
-      </c>
-      <c r="B5">
-        <v>0.1310115039056672</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>annual.mean.AI</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>0.6940734503734208</v>
-      </c>
-      <c r="E5">
-        <v>0.037</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6">
-        <v>0.4518339721093921</v>
-      </c>
-      <c r="B6">
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.81685049294803935</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>0.82274506149705695</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.13101150390566721</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.69407345037342083</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>0.45183397210939208</v>
+      </c>
+      <c r="B6" s="4">
         <v>-0.4318463494667501</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>annual.mean.chla</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>0.3906452078999094</v>
-      </c>
-      <c r="E6">
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.39064520789990942</v>
+      </c>
+      <c r="E6" s="4">
         <v>0.2311</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7">
-        <v>0.7710417934010483</v>
-      </c>
-      <c r="B7">
-        <v>-0.03692104064424524</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>annual.mean.temp</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>0.5958686104133588</v>
-      </c>
-      <c r="E7">
-        <v>0.0704</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8">
-        <v>0.5330015897543935</v>
-      </c>
-      <c r="B8">
-        <v>0.4267502139443723</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>annual.mean.pH</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>0.4662064397822784</v>
-      </c>
-      <c r="E8">
-        <v>0.1509</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9">
-        <v>0.4539296452210826</v>
-      </c>
-      <c r="B9">
-        <v>0.4017645080830756</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>annual.mean.DO.percent</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>0.3674668427657737</v>
-      </c>
-      <c r="E9">
-        <v>0.2519</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10">
-        <v>0.2234828570962789</v>
-      </c>
-      <c r="B10">
-        <v>0.3906971890514233</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>annual.mean.DO.mg.L</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>0.2025888809485994</v>
-      </c>
-      <c r="E10">
-        <v>0.5003</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <v>0.7929834761250193</v>
-      </c>
-      <c r="B11">
-        <v>0.1927773710839361</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>SC.Level</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>0.6659859082093526</v>
-      </c>
-      <c r="E11">
-        <v>0.0354</v>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>0.77104179340104828</v>
+      </c>
+      <c r="B7" s="4">
+        <v>-3.6921040644245243E-2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.59586861041335881</v>
+      </c>
+      <c r="E7" s="4">
+        <v>7.0400000000000004E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>0.53300158975439349</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0.42675021394437229</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.46620643978227838</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.15090000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>0.45392964522108259</v>
+      </c>
+      <c r="B9" s="4">
+        <v>0.40176450808307562</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.36746684276577368</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.25190000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>0.22348285709627891</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.39069718905142331</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.20258888094859939</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.50029999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>0.79298347612501929</v>
+      </c>
+      <c r="B11" s="4">
+        <v>0.19277737108393611</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.66598590820935255</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.5400000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>